--- a/download/data-file.xlsx
+++ b/download/data-file.xlsx
@@ -826,24 +826,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1149,8 +1132,8 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2159,10 +2142,10 @@
       <c r="F36" t="s">
         <v>187</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="1" t="s">
         <v>189</v>
       </c>
       <c r="I36" s="3"/>
@@ -2189,7 +2172,7 @@
       <c r="G37" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="1" t="s">
         <v>194</v>
       </c>
       <c r="I37" s="3"/>
@@ -2213,10 +2196,10 @@
       <c r="F38" t="s">
         <v>198</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="1" t="s">
         <v>199</v>
       </c>
       <c r="I38" s="3"/>
@@ -2240,10 +2223,10 @@
       <c r="F39" t="s">
         <v>203</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="1" t="s">
         <v>201</v>
       </c>
       <c r="I39" s="3"/>
@@ -2267,10 +2250,10 @@
       <c r="F40" t="s">
         <v>209</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="1" t="s">
         <v>206</v>
       </c>
       <c r="I40" s="3"/>
@@ -2294,10 +2277,10 @@
       <c r="F41" t="s">
         <v>215</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="1" t="s">
         <v>212</v>
       </c>
       <c r="I41" s="3"/>
@@ -2321,10 +2304,10 @@
       <c r="F42" t="s">
         <v>217</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="1" t="s">
         <v>219</v>
       </c>
       <c r="I42" s="3"/>
@@ -2348,10 +2331,10 @@
       <c r="F43" t="s">
         <v>222</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2374,10 +2357,10 @@
       <c r="F44" t="s">
         <v>227</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2400,10 +2383,10 @@
       <c r="F45" t="s">
         <v>232</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="1" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2426,10 +2409,10 @@
       <c r="F46" t="s">
         <v>237</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="1" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2451,15 +2434,15 @@
         <cfvo type="percent" val="67"/>
       </iconSet>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="15" stopIfTrue="1">
       <formula>SUMIF($B2:$B1000,O3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B33">
-    <cfRule type="duplicateValues" dxfId="3" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H17" r:id="rId1"/>

--- a/download/data-file.xlsx
+++ b/download/data-file.xlsx
@@ -224,16 +224,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -547,432 +554,434 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" customWidth="1"/>
-    <col min="8" max="8" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="71.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I4" s="3"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="3"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="3"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="3"/>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="3"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="3"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="3"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="3"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="3"/>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="3"/>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="3"/>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
       <c r="I22" s="3"/>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
       <c r="I23" s="3"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="3"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="3"/>
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="3"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="3"/>
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="3"/>
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="3"/>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="3"/>
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
       <c r="I31" s="3"/>
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
       <c r="I32" s="3"/>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="3"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
     </row>
     <row r="45" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="I4:I42">
     <cfRule type="iconSet" priority="7">
       <iconSet showValue="0">
